--- a/016_Kompetenzen_Einschätzung_LN.xlsx
+++ b/016_Kompetenzen_Einschätzung_LN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigicavuoti/Documents/Daten-i-Schulen/i-schulung/module_2020/m122-bbw/08_Bash/16_Abschlussarbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamoc\IdeaProjects\Modul122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941B21D7-F6F7-C442-BF0C-315ABF80792D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2436EC-F4AD-42CD-9A40-F782213F9B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="460" windowWidth="23500" windowHeight="25240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
   <si>
     <r>
       <rPr>
@@ -203,6 +201,15 @@
   </si>
   <si>
     <t>Sehr hohe Kompetenzstufe erreicht. Kann die Kompetenzen reflektiert und bewusst einsetzen. Ist in der Lage anspruchsvolle Aufgaben mit Unbekannten zu lösen. (Experte)</t>
+  </si>
+  <si>
+    <t>Tabea Mock</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -487,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -611,6 +618,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,19 +963,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
-    <col min="3" max="4" width="4.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="3" max="4" width="4.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -976,7 +987,7 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
@@ -991,7 +1002,7 @@
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1004,11 +1015,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1019,11 +1032,13 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="43">
+        <v>44755</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1034,8 +1049,8 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:11" ht="23.5" x14ac:dyDescent="0.45">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -1068,8 +1083,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -1086,7 +1101,7 @@
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
     </row>
-    <row r="11" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1098,15 +1113,14 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" ref="D11:D14" si="0">IF(F11&gt;0,G11*4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="11" t="str">
-        <f t="shared" ref="E11:E14" si="1">IF(F11&gt;0,"d","")</f>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" ref="F11:F14" si="2">IF(H11="x",1,IF(I11="x",2,IF(J11="x",3,IF(K11="x",4,0))))</f>
-        <v>0</v>
+        <f t="shared" ref="F11:F14" si="1">IF(H11="x",1,IF(I11="x",2,IF(J11="x",3,IF(K11="x",4,0))))</f>
+        <v>3</v>
       </c>
       <c r="G11" s="12">
         <v>1</v>
@@ -1116,13 +1130,13 @@
         <v>16</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>1.2</v>
       </c>
@@ -1134,22 +1148,21 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="12">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="12">
         <v>1</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>16</v>
@@ -1158,7 +1171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>1.3</v>
       </c>
@@ -1170,15 +1183,14 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="12">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="12">
         <v>1</v>
@@ -1188,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>1.4</v>
       </c>
@@ -1206,22 +1218,21 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="12">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="12">
         <v>1</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>16</v>
@@ -1230,7 +1241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2</v>
       </c>
@@ -1247,7 +1258,7 @@
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2.1</v>
       </c>
@@ -1258,16 +1269,15 @@
         <v>4</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ref="D16:D20" si="3">IF(F16&gt;0,G16*4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="11" t="str">
-        <f t="shared" ref="E16:E20" si="4">IF(F16&gt;0,"d","")</f>
-        <v/>
+        <f t="shared" ref="D16:D20" si="2">IF(F16&gt;0,G16*4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" ref="F16:F20" si="5">IF(H16="x",1,IF(I16="x",2,IF(J16="x",3,IF(K16="x",4,0))))</f>
-        <v>0</v>
+        <f t="shared" ref="F16:F20" si="3">IF(H16="x",1,IF(I16="x",2,IF(J16="x",3,IF(K16="x",4,0))))</f>
+        <v>3</v>
       </c>
       <c r="G16" s="12">
         <v>1</v>
@@ -1277,13 +1287,13 @@
         <v>16</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -1294,16 +1304,15 @@
         <v>4</v>
       </c>
       <c r="D17" s="11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="12">
         <v>1</v>
@@ -1313,13 +1322,13 @@
         <v>16</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -1330,16 +1339,15 @@
         <v>4</v>
       </c>
       <c r="D18" s="11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F18" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="12">
         <v>1</v>
@@ -1349,13 +1357,13 @@
         <v>16</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>2.4</v>
       </c>
@@ -1366,23 +1374,22 @@
         <v>4</v>
       </c>
       <c r="D19" s="11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="12">
         <v>1</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>16</v>
@@ -1391,7 +1398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>2.5</v>
       </c>
@@ -1402,16 +1409,15 @@
         <v>4</v>
       </c>
       <c r="D20" s="11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F20" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="12">
         <v>1</v>
@@ -1419,7 +1425,9 @@
       <c r="H20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="J20" s="13" t="s">
         <v>16</v>
       </c>
@@ -1427,7 +1435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>3</v>
       </c>
@@ -1444,7 +1452,7 @@
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
     </row>
-    <row r="22" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>3.1</v>
       </c>
@@ -1452,20 +1460,19 @@
         <v>27</v>
       </c>
       <c r="C22" s="11">
-        <f t="shared" ref="C22" si="6">4*G22</f>
+        <f t="shared" ref="C22" si="4">4*G22</f>
         <v>4</v>
       </c>
       <c r="D22" s="11">
-        <f t="shared" ref="D22:D23" si="7">IF(F22&gt;0,G22*4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="11" t="str">
-        <f t="shared" ref="E22:E23" si="8">IF(F22&gt;0,"d","")</f>
-        <v/>
+        <f t="shared" ref="D22:D23" si="5">IF(F22&gt;0,G22*4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" ref="F22:F23" si="9">IF(H22="x",1,IF(I22="x",2,IF(J22="x",3,IF(K22="x",4,0))))</f>
-        <v>0</v>
+        <f t="shared" ref="F22:F23" si="6">IF(H22="x",1,IF(I22="x",2,IF(J22="x",3,IF(K22="x",4,0))))</f>
+        <v>4</v>
       </c>
       <c r="G22" s="12">
         <v>1</v>
@@ -1478,10 +1485,10 @@
         <v>16</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>3.2</v>
       </c>
@@ -1492,16 +1499,15 @@
         <v>4</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="G23" s="12">
         <v>1</v>
@@ -1514,10 +1520,10 @@
         <v>16</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>4</v>
       </c>
@@ -1534,7 +1540,7 @@
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
     </row>
-    <row r="25" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>4.0999999999999996</v>
       </c>
@@ -1542,20 +1548,19 @@
         <v>30</v>
       </c>
       <c r="C25" s="11">
-        <f t="shared" ref="C25" si="10">4*G25</f>
+        <f t="shared" ref="C25" si="7">4*G25</f>
         <v>4</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" ref="D25:D26" si="11">IF(F25&gt;0,G25*4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="11" t="str">
-        <f t="shared" ref="E25:E26" si="12">IF(F25&gt;0,"d","")</f>
-        <v/>
+        <f t="shared" ref="D25:D26" si="8">IF(F25&gt;0,G25*4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" ref="F25:F26" si="13">IF(H25="x",1,IF(I25="x",2,IF(J25="x",3,IF(K25="x",4,0))))</f>
-        <v>0</v>
+        <f t="shared" ref="F25:F26" si="9">IF(H25="x",1,IF(I25="x",2,IF(J25="x",3,IF(K25="x",4,0))))</f>
+        <v>3</v>
       </c>
       <c r="G25" s="12">
         <v>1</v>
@@ -1565,13 +1570,13 @@
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K25" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>4.2</v>
       </c>
@@ -1582,16 +1587,15 @@
         <v>4</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="11" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F26" s="12">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="G26" s="12">
         <v>2</v>
@@ -1599,7 +1603,9 @@
       <c r="H26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="J26" s="13" t="s">
         <v>16</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>5</v>
       </c>
@@ -1624,7 +1630,7 @@
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
     </row>
-    <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>5.0999999999999996</v>
       </c>
@@ -1632,20 +1638,19 @@
         <v>33</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" ref="C28" si="14">4*G28</f>
+        <f t="shared" ref="C28" si="10">4*G28</f>
         <v>4</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" ref="D28:D30" si="15">IF(F28&gt;0,G28*4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="11" t="str">
-        <f t="shared" ref="E28:E30" si="16">IF(F28&gt;0,"d","")</f>
-        <v/>
+        <f t="shared" ref="D28:D30" si="11">IF(F28&gt;0,G28*4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" ref="F28:F30" si="17">IF(H28="x",1,IF(I28="x",2,IF(J28="x",3,IF(K28="x",4,0))))</f>
-        <v>0</v>
+        <f t="shared" ref="F28:F30" si="12">IF(H28="x",1,IF(I28="x",2,IF(J28="x",3,IF(K28="x",4,0))))</f>
+        <v>3</v>
       </c>
       <c r="G28" s="12">
         <v>1</v>
@@ -1655,13 +1660,13 @@
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="13" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>5.2</v>
       </c>
@@ -1672,16 +1677,15 @@
         <v>4</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F29" s="12">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="G29" s="12">
         <v>2</v>
@@ -1694,10 +1698,10 @@
         <v>16</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>5.2</v>
       </c>
@@ -1708,16 +1712,15 @@
         <v>4</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="11" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="G30" s="12">
         <v>2</v>
@@ -1727,13 +1730,13 @@
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1746,7 +1749,7 @@
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1759,7 +1762,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -1771,7 +1774,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B34" s="18" t="s">
         <v>36</v>
       </c>
@@ -1781,15 +1784,15 @@
       </c>
       <c r="D34" s="19">
         <f>SUM(D11:D30)</f>
+        <v>76</v>
+      </c>
+      <c r="E34" s="19">
+        <f t="shared" ref="E34:F34" si="13">SUM(E11:E30)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="19">
-        <f t="shared" ref="E34:F34" si="18">SUM(E11:E30)</f>
-        <v>0</v>
-      </c>
       <c r="F34" s="19">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>46</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -1797,7 +1800,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -1809,7 +1812,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B36" s="18" t="s">
         <v>37</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -1843,7 +1846,7 @@
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B38" s="18" t="s">
         <v>38</v>
       </c>
@@ -1858,14 +1861,14 @@
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B39" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="19"/>
       <c r="F39" s="19">
         <f>F34</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -1873,7 +1876,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="18"/>
       <c r="D40" s="19"/>
       <c r="F40" s="19"/>
@@ -1883,7 +1886,7 @@
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
         <v>40</v>
       </c>
@@ -1898,7 +1901,7 @@
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42" s="18" t="s">
         <v>41</v>
       </c>
@@ -1909,7 +1912,7 @@
       </c>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="18"/>
       <c r="D43" s="19"/>
       <c r="F43" s="19"/>
@@ -1919,14 +1922,14 @@
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B44" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="19"/>
       <c r="F44" s="22">
         <f>IF(D34&gt;0,ROUND(5/D34*F39+1,1),1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
@@ -1934,7 +1937,7 @@
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="18"/>
       <c r="D45" s="23"/>
       <c r="F45" s="23"/>
@@ -1944,19 +1947,19 @@
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B46" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C46" s="23">
         <f>5/F38*F39+1</f>
-        <v>1</v>
+        <v>4.59375</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="19"/>
       <c r="F46" s="24">
         <f>ROUND(C46*2,0)/2</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
@@ -1964,7 +1967,7 @@
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="25" t="s">
         <v>44</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="29" t="s">
         <v>10</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="40" x14ac:dyDescent="0.35">
       <c r="A49" s="29" t="s">
         <v>11</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.35">
       <c r="A50" s="29" t="s">
         <v>12</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="40" x14ac:dyDescent="0.35">
       <c r="A51" s="33" t="s">
         <v>13</v>
       </c>
@@ -2034,7 +2037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A52" s="29"/>
       <c r="B52" s="30"/>
       <c r="C52" s="31"/>
@@ -2042,7 +2045,7 @@
       <c r="E52" s="31"/>
       <c r="F52" s="32"/>
     </row>
-    <row r="53" spans="1:6" ht="23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
       <c r="C53" s="35"/>
@@ -2067,6 +2070,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="7f99af2a-7b64-4515-8e5a-c5f4e94589b4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B2B7659F780A034DB745AFE21134E02D" ma:contentTypeVersion="1" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="c8c30b62c829c6a4f9dfd913ae144741">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f99af2a-7b64-4515-8e5a-c5f4e94589b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="719f388185a1355cbaefe235a8955391" ns2:_="">
     <xsd:import namespace="7f99af2a-7b64-4515-8e5a-c5f4e94589b4"/>
@@ -2192,31 +2212,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="7f99af2a-7b64-4515-8e5a-c5f4e94589b4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16CC05D5-9F8B-4EB9-8258-532703109A18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A0A8C1C-3CCA-431A-9722-62F8CD2A5EF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f99af2a-7b64-4515-8e5a-c5f4e94589b4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AAA5B6-8541-4E21-9E5B-E2D018C99D3C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AAA5B6-8541-4E21-9E5B-E2D018C99D3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A0A8C1C-3CCA-431A-9722-62F8CD2A5EF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16CC05D5-9F8B-4EB9-8258-532703109A18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7f99af2a-7b64-4515-8e5a-c5f4e94589b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>